--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.92720378959855</v>
+        <v>1.033717666666667</v>
       </c>
       <c r="N2">
-        <v>6.92720378959855</v>
+        <v>3.101153</v>
       </c>
       <c r="O2">
-        <v>0.2963290061741727</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="P2">
-        <v>0.2963290061741727</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="Q2">
-        <v>1279.406723123881</v>
+        <v>205.686258274761</v>
       </c>
       <c r="R2">
-        <v>1279.406723123881</v>
+        <v>1851.176324472849</v>
       </c>
       <c r="S2">
-        <v>0.1382799114071361</v>
+        <v>0.01753883546275717</v>
       </c>
       <c r="T2">
-        <v>0.1382799114071361</v>
+        <v>0.01753883546275717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.0880303158956</v>
+        <v>7.139908666666667</v>
       </c>
       <c r="N3">
-        <v>16.0880303158956</v>
+        <v>21.419726</v>
       </c>
       <c r="O3">
-        <v>0.6882069850417358</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="P3">
-        <v>0.6882069850417358</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="Q3">
-        <v>2971.348147557601</v>
+        <v>1420.679113288062</v>
       </c>
       <c r="R3">
-        <v>2971.348147557601</v>
+        <v>12786.11201959256</v>
       </c>
       <c r="S3">
-        <v>0.3211470998063834</v>
+        <v>0.1211410884826842</v>
       </c>
       <c r="T3">
-        <v>0.3211470998063834</v>
+        <v>0.1211410884826842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H4">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I4">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J4">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.361497990475427</v>
+        <v>17.222987</v>
       </c>
       <c r="N4">
-        <v>0.361497990475427</v>
+        <v>51.668961</v>
       </c>
       <c r="O4">
-        <v>0.01546400878409149</v>
+        <v>0.6629400015943212</v>
       </c>
       <c r="P4">
-        <v>0.01546400878409149</v>
+        <v>0.6629400015943213</v>
       </c>
       <c r="Q4">
-        <v>66.76618350747802</v>
+        <v>3426.981918349257</v>
       </c>
       <c r="R4">
-        <v>66.76618350747802</v>
+        <v>30842.83726514331</v>
       </c>
       <c r="S4">
-        <v>0.007216174320128771</v>
+        <v>0.2922182186788645</v>
       </c>
       <c r="T4">
-        <v>0.007216174320128771</v>
+        <v>0.2922182186788646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.763767480216</v>
+        <v>198.977211</v>
       </c>
       <c r="H5">
-        <v>195.763767480216</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I5">
-        <v>0.4946141974629212</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J5">
-        <v>0.4946141974629212</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.92720378959855</v>
+        <v>0.5830936666666667</v>
       </c>
       <c r="N5">
-        <v>6.92720378959855</v>
+        <v>1.749281</v>
       </c>
       <c r="O5">
-        <v>0.2963290061741727</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="P5">
-        <v>0.2963290061741727</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="Q5">
-        <v>1356.095511955042</v>
+        <v>116.022351545097</v>
       </c>
       <c r="R5">
-        <v>1356.095511955042</v>
+        <v>1044.201163905873</v>
       </c>
       <c r="S5">
-        <v>0.1465685335738235</v>
+        <v>0.009893207989779065</v>
       </c>
       <c r="T5">
-        <v>0.1465685335738235</v>
+        <v>0.009893207989779067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H6">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>16.0880303158956</v>
+        <v>1.033717666666667</v>
       </c>
       <c r="N6">
-        <v>16.0880303158956</v>
+        <v>3.101153</v>
       </c>
       <c r="O6">
-        <v>0.6882069850417358</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="P6">
-        <v>0.6882069850417358</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="Q6">
-        <v>3149.453425975652</v>
+        <v>203.4094565218015</v>
       </c>
       <c r="R6">
-        <v>3149.453425975652</v>
+        <v>1830.685108696213</v>
       </c>
       <c r="S6">
-        <v>0.3403969455947948</v>
+        <v>0.01734469292906815</v>
       </c>
       <c r="T6">
-        <v>0.3403969455947948</v>
+        <v>0.01734469292906816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H7">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.361497990475427</v>
+        <v>7.139908666666667</v>
       </c>
       <c r="N7">
-        <v>0.361497990475427</v>
+        <v>21.419726</v>
       </c>
       <c r="O7">
-        <v>0.01546400878409149</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="P7">
-        <v>0.01546400878409149</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="Q7">
-        <v>70.76820855199684</v>
+        <v>1404.953197893139</v>
       </c>
       <c r="R7">
-        <v>70.76820855199684</v>
+        <v>12644.57878103825</v>
       </c>
       <c r="S7">
-        <v>0.007648718294302977</v>
+        <v>0.119800142106751</v>
       </c>
       <c r="T7">
-        <v>0.007648718294302977</v>
+        <v>0.1198001421067511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.3339728328425</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H8">
-        <v>15.3339728328425</v>
+        <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J8">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.92720378959855</v>
+        <v>17.222987</v>
       </c>
       <c r="N8">
-        <v>6.92720378959855</v>
+        <v>51.668961</v>
       </c>
       <c r="O8">
-        <v>0.2963290061741727</v>
+        <v>0.6629400015943212</v>
       </c>
       <c r="P8">
-        <v>0.2963290061741727</v>
+        <v>0.6629400015943213</v>
       </c>
       <c r="Q8">
-        <v>106.2215547172678</v>
+        <v>3389.047646490242</v>
       </c>
       <c r="R8">
-        <v>106.2215547172678</v>
+        <v>30501.42881841218</v>
       </c>
       <c r="S8">
-        <v>0.01148056119321316</v>
+        <v>0.2889835691786242</v>
       </c>
       <c r="T8">
-        <v>0.01148056119321316</v>
+        <v>0.2889835691786243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.3339728328425</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H9">
-        <v>15.3339728328425</v>
+        <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J9">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0880303158956</v>
+        <v>0.5830936666666667</v>
       </c>
       <c r="N9">
-        <v>16.0880303158956</v>
+        <v>1.749281</v>
       </c>
       <c r="O9">
-        <v>0.6882069850417358</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="P9">
-        <v>0.6882069850417358</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="Q9">
-        <v>246.6934197978897</v>
+        <v>114.7380659754335</v>
       </c>
       <c r="R9">
-        <v>246.6934197978897</v>
+        <v>1032.642593778901</v>
       </c>
       <c r="S9">
-        <v>0.02666293964055759</v>
+        <v>0.009783697157687244</v>
       </c>
       <c r="T9">
-        <v>0.02666293964055759</v>
+        <v>0.009783697157687246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.158424</v>
+      </c>
+      <c r="H10">
+        <v>0.475272</v>
+      </c>
+      <c r="I10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.033717666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.101153</v>
+      </c>
+      <c r="O10">
+        <v>0.03978942744299105</v>
+      </c>
+      <c r="P10">
+        <v>0.03978942744299105</v>
+      </c>
+      <c r="Q10">
+        <v>0.163765687624</v>
+      </c>
+      <c r="R10">
+        <v>1.473891188616</v>
+      </c>
+      <c r="S10">
+        <v>1.396427488046278E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.396427488046278E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.158424</v>
+      </c>
+      <c r="H11">
+        <v>0.475272</v>
+      </c>
+      <c r="I11">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J11">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.139908666666667</v>
+      </c>
+      <c r="N11">
+        <v>21.419726</v>
+      </c>
+      <c r="O11">
+        <v>0.2748263737796068</v>
+      </c>
+      <c r="P11">
+        <v>0.2748263737796068</v>
+      </c>
+      <c r="Q11">
+        <v>1.131132890608</v>
+      </c>
+      <c r="R11">
+        <v>10.180196015472</v>
+      </c>
+      <c r="S11">
+        <v>9.645152681218741E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.645152681218741E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.158424</v>
+      </c>
+      <c r="H12">
+        <v>0.475272</v>
+      </c>
+      <c r="I12">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J12">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.222987</v>
+      </c>
+      <c r="N12">
+        <v>51.668961</v>
+      </c>
+      <c r="O12">
+        <v>0.6629400015943212</v>
+      </c>
+      <c r="P12">
+        <v>0.6629400015943213</v>
+      </c>
+      <c r="Q12">
+        <v>2.728534492488</v>
+      </c>
+      <c r="R12">
+        <v>24.556810432392</v>
+      </c>
+      <c r="S12">
+        <v>0.000232661714591931</v>
+      </c>
+      <c r="T12">
+        <v>0.0002326617145919311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.158424</v>
+      </c>
+      <c r="H13">
+        <v>0.475272</v>
+      </c>
+      <c r="I13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5830936666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.749281</v>
+      </c>
+      <c r="O13">
+        <v>0.02244419718308088</v>
+      </c>
+      <c r="P13">
+        <v>0.02244419718308088</v>
+      </c>
+      <c r="Q13">
+        <v>0.09237603104800002</v>
+      </c>
+      <c r="R13">
+        <v>0.8313842794320001</v>
+      </c>
+      <c r="S13">
+        <v>7.876889894555608E-06</v>
+      </c>
+      <c r="T13">
+        <v>7.876889894555608E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H14">
+        <v>166.496266</v>
+      </c>
+      <c r="I14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.033717666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.101153</v>
+      </c>
+      <c r="O14">
+        <v>0.03978942744299105</v>
+      </c>
+      <c r="P14">
+        <v>0.03978942744299105</v>
+      </c>
+      <c r="Q14">
+        <v>57.37004386607757</v>
+      </c>
+      <c r="R14">
+        <v>516.3303947946981</v>
+      </c>
+      <c r="S14">
+        <v>0.004891934776285261</v>
+      </c>
+      <c r="T14">
+        <v>0.004891934776285261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H15">
+        <v>166.496266</v>
+      </c>
+      <c r="I15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.139908666666667</v>
+      </c>
+      <c r="N15">
+        <v>21.419726</v>
+      </c>
+      <c r="O15">
+        <v>0.2748263737796068</v>
+      </c>
+      <c r="P15">
+        <v>0.2748263737796068</v>
+      </c>
+      <c r="Q15">
+        <v>396.2560441936797</v>
+      </c>
+      <c r="R15">
+        <v>3566.304397743117</v>
+      </c>
+      <c r="S15">
+        <v>0.03378869166335927</v>
+      </c>
+      <c r="T15">
+        <v>0.03378869166335927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.361497990475427</v>
-      </c>
-      <c r="N10">
-        <v>0.361497990475427</v>
-      </c>
-      <c r="O10">
-        <v>0.01546400878409149</v>
-      </c>
-      <c r="P10">
-        <v>0.01546400878409149</v>
-      </c>
-      <c r="Q10">
-        <v>5.543200365077355</v>
-      </c>
-      <c r="R10">
-        <v>5.543200365077355</v>
-      </c>
-      <c r="S10">
-        <v>0.0005991161696597416</v>
-      </c>
-      <c r="T10">
-        <v>0.0005991161696597416</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H16">
+        <v>166.496266</v>
+      </c>
+      <c r="I16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.222987</v>
+      </c>
+      <c r="N16">
+        <v>51.668961</v>
+      </c>
+      <c r="O16">
+        <v>0.6629400015943212</v>
+      </c>
+      <c r="P16">
+        <v>0.6629400015943213</v>
+      </c>
+      <c r="Q16">
+        <v>955.8543416221809</v>
+      </c>
+      <c r="R16">
+        <v>8602.689074599628</v>
+      </c>
+      <c r="S16">
+        <v>0.0815055520222404</v>
+      </c>
+      <c r="T16">
+        <v>0.08150555202224041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H17">
+        <v>166.496266</v>
+      </c>
+      <c r="I17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5830936666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.749281</v>
+      </c>
+      <c r="O17">
+        <v>0.02244419718308088</v>
+      </c>
+      <c r="P17">
+        <v>0.02244419718308088</v>
+      </c>
+      <c r="Q17">
+        <v>32.36097274274957</v>
+      </c>
+      <c r="R17">
+        <v>291.2487546847461</v>
+      </c>
+      <c r="S17">
+        <v>0.002759415145720014</v>
+      </c>
+      <c r="T17">
+        <v>0.002759415145720014</v>
       </c>
     </row>
   </sheetData>
